--- a/team_specific_matrix/North American_B.xlsx
+++ b/team_specific_matrix/North American_B.xlsx
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4761904761904762</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4545454545454545</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.4545454545454545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2340425531914894</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0425531914893617</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1276595744680851</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0425531914893617</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.5531914893617021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.2727272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3636363636363636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1513,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.1261261261261261</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2162162162162162</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1261261261261261</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2162162162162162</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.04504504504504504</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.01801801801801802</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.2522522522522522</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
